--- a/Nhóm/TestCaseForScenario4.xlsx
+++ b/Nhóm/TestCaseForScenario4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46BA169E-CE15-46DF-9473-950130063AF7}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F55A8FD5-0482-40A2-BF18-5D24EDBD83EB}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17130" yWindow="1680" windowWidth="11640" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>1.4.4</t>
+  </si>
+  <si>
+    <t>La Quốc Thắng</t>
+  </si>
+  <si>
+    <t>Title = "~!@#$%^&amp;*()_+{}:"</t>
+  </si>
+  <si>
+    <t>Title = "Tình khúc vượt thời gian"</t>
+  </si>
+  <si>
+    <t>Price = -8.99</t>
+  </si>
+  <si>
+    <t>Price = 10</t>
   </si>
 </sst>
 </file>
@@ -135,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,6 +182,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -289,9 +311,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +320,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +663,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -660,24 +682,26 @@
         <v>9</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
@@ -713,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -741,8 +765,8 @@
         <v>7</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>2</v>
@@ -750,7 +774,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="29">
         <f ca="1">NOW()</f>
-        <v>43971.672320138889</v>
+        <v>43976.60800763889</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="13" t="s">
@@ -776,7 +800,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -785,7 +809,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -807,7 +831,9 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -878,7 +904,7 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1100,7 +1126,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1119,24 +1145,26 @@
         <v>9</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1200,8 +1228,8 @@
         <v>7</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>2</v>
@@ -1209,7 +1237,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="29">
         <f ca="1">NOW()</f>
-        <v>43971.672320138889</v>
+        <v>43976.60800763889</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="13" t="s">
@@ -1235,7 +1263,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1244,7 +1272,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1266,7 +1294,9 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1337,7 +1367,7 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1558,7 +1588,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1577,24 +1607,26 @@
         <v>9</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
@@ -1630,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1658,8 +1690,8 @@
         <v>7</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>2</v>
@@ -1667,7 +1699,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="29">
         <f ca="1">NOW()</f>
-        <v>43971.672320138889</v>
+        <v>43976.60800763889</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="13" t="s">
@@ -1693,7 +1725,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1702,7 +1734,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1724,7 +1756,9 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1795,7 +1829,7 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -2015,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B44290-16C0-4DB8-94B2-02B0FD862747}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2035,24 +2069,26 @@
         <v>9</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2116,8 +2152,8 @@
         <v>7</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>2</v>
@@ -2125,7 +2161,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="29">
         <f ca="1">NOW()</f>
-        <v>43971.672320138889</v>
+        <v>43976.60800763889</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="13" t="s">
@@ -2151,7 +2187,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -2160,7 +2196,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -2182,7 +2218,9 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2253,7 +2291,7 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="18" t="s">

--- a/Nhóm/TestCaseForScenario4.xlsx
+++ b/Nhóm/TestCaseForScenario4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F55A8FD5-0482-40A2-BF18-5D24EDBD83EB}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E03992BC-4119-4204-8657-3FC54F56BA5B}"/>
   <bookViews>
-    <workbookView xWindow="17130" yWindow="1680" windowWidth="11640" windowHeight="12420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -101,18 +101,6 @@
     <t>Test Data:</t>
   </si>
   <si>
-    <t>Tên sản phẩm không hợp lệ</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm  hợp lệ</t>
-  </si>
-  <si>
-    <t>Giá sản phẩm không hợp lệ</t>
-  </si>
-  <si>
-    <t>Giá sản phẩm hợp lệ</t>
-  </si>
-  <si>
     <t>Kiểm tra chức năng cập nhật sản phẩm</t>
   </si>
   <si>
@@ -131,16 +119,56 @@
     <t>La Quốc Thắng</t>
   </si>
   <si>
-    <t>Title = "~!@#$%^&amp;*()_+{}:"</t>
-  </si>
-  <si>
-    <t>Title = "Tình khúc vượt thời gian"</t>
-  </si>
-  <si>
-    <t>Price = -8.99</t>
-  </si>
-  <si>
-    <t>Price = 10</t>
+    <t>Thiếu một số trường bắt buộc</t>
+  </si>
+  <si>
+    <t>Mã nguồn chương trình</t>
+  </si>
+  <si>
+    <t>Cập nhật sản phẩm mà sản phẩm đó chưa có trong hệ thống</t>
+  </si>
+  <si>
+    <t>Cập nhật sản phẩm hợp lệ</t>
+  </si>
+  <si>
+    <t>Cập nhật sản phẩm có giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Tạo một cơ sở dữ liệu ảo dùng cho kiểm thử</t>
+  </si>
+  <si>
+    <t>Album có sẵn: AlbumID = 100, ArtistID = 10, GenreID = 1, Price = 19.99M
+Album cập nhật: AlbumID = 1</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Tạo album: AlbumID = 100, ArtistID = 10, GenreID = 1, Price = 19.99M</t>
+  </si>
+  <si>
+    <t>Cập nhật album có ID là 1 thì báo lỗi</t>
+  </si>
+  <si>
+    <t>Album có sẵn: AlbumID = 100, ArtistID = 10, GenreID = 1, Price = 19.99M
+Album cập nhật: AlbumID = 100, thêm Title = "Tình khúc vượt thời gian", Price = 8.99M</t>
+  </si>
+  <si>
+    <t>Cập nhật tên và giá vào album đó thì thành công</t>
+  </si>
+  <si>
+    <t>Album có sẵn: AlbumID = 100, ArtistID = 10, GenreID = 1, Price = 19.99M
+Album cập nhật: AlbumID = 100, thêm Title = "Tình khúc vượt thời gian", Price = -10M</t>
+  </si>
+  <si>
+    <t>Cập nhật tên và giá âm vào album đó thì báo lỗi</t>
+  </si>
+  <si>
+    <t>Album có sẵn: AlbumID = 100, ArtistID = 10, GenreID = 1, Price = 19.99M
+Album cập nhật: AlbumID = 100, thêm Title = ""</t>
+  </si>
+  <si>
+    <t>Cập nhật tên trống vào album đó thì báo lỗi</t>
   </si>
 </sst>
 </file>
@@ -168,13 +196,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -182,14 +210,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -325,6 +353,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -332,19 +384,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -357,27 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,7 +691,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K10"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -671,53 +699,52 @@
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -733,10 +760,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -761,30 +788,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
-        <f ca="1">NOW()</f>
-        <v>43976.60800763889</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="25">
+        <v>43998</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -803,92 +829,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -907,14 +935,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -928,10 +956,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -945,10 +973,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -956,147 +984,116 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D18:E18"/>
@@ -1113,6 +1110,43 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1126,7 +1160,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K10"/>
+      <selection activeCell="D18" sqref="D18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1134,53 +1168,52 @@
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1196,10 +1229,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1224,30 +1257,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
-        <f ca="1">NOW()</f>
-        <v>43976.60800763889</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="25">
+        <v>43998</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1266,92 +1298,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1370,14 +1404,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1391,10 +1425,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -1408,10 +1442,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1419,110 +1453,161 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -1531,51 +1616,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1588,7 +1628,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K10"/>
+      <selection activeCell="D18" sqref="D18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1596,53 +1636,52 @@
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1658,10 +1697,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1686,30 +1725,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
-        <f ca="1">NOW()</f>
-        <v>43976.60800763889</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="25">
+        <v>43998</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1728,92 +1766,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1832,14 +1872,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1853,10 +1893,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -1870,10 +1910,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1881,110 +1921,161 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -1993,51 +2084,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2050,7 +2096,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K10"/>
+      <selection activeCell="D18" sqref="D18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2058,53 +2104,52 @@
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -2120,10 +2165,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2148,30 +2193,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
-        <f ca="1">NOW()</f>
-        <v>43976.60800763889</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="25">
+        <v>43998</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -2190,92 +2234,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -2294,14 +2340,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2315,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -2332,10 +2378,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2343,110 +2389,161 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -2455,51 +2552,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Nhóm/TestCaseForScenario4.xlsx
+++ b/Nhóm/TestCaseForScenario4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E03992BC-4119-4204-8657-3FC54F56BA5B}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C45DB7CC-EBFB-4FCF-BF45-933D2C502DE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,59 +353,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,6 +688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -705,46 +708,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -760,10 +763,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -788,29 +791,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="14"/>
+      <c r="F6" s="29">
         <v>43998</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -829,94 +832,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -935,14 +938,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -956,10 +959,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -973,10 +976,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -988,112 +991,149 @@
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D18:E18"/>
@@ -1110,53 +1150,19 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383C97D5-11C1-4BE1-8A8F-97BD99174FB6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1174,46 +1180,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1229,10 +1235,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1257,29 +1263,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="14"/>
+      <c r="F6" s="29">
         <v>43998</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1298,94 +1304,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1404,14 +1410,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1425,10 +1431,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -1442,10 +1448,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1457,117 +1463,152 @@
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -1576,55 +1617,23 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141AD72A-A2E4-4D11-A50D-49F4BC211463}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1642,46 +1651,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1697,10 +1706,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1725,29 +1734,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="14"/>
+      <c r="F6" s="29">
         <v>43998</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1766,94 +1775,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1872,14 +1881,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1893,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -1910,10 +1919,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1925,117 +1934,152 @@
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -2044,55 +2088,23 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B44290-16C0-4DB8-94B2-02B0FD862747}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -2110,46 +2122,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -2165,10 +2177,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2193,29 +2205,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="14"/>
+      <c r="F6" s="29">
         <v>43998</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -2234,94 +2246,94 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -2340,14 +2352,14 @@
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2361,10 +2373,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
@@ -2378,10 +2390,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -2393,117 +2405,152 @@
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -2512,49 +2559,14 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>